--- a/biology/Médecine/Hôpital_du_Sacré-Cœur_de_Montréal/Hôpital_du_Sacré-Cœur_de_Montréal.xlsx
+++ b/biology/Médecine/Hôpital_du_Sacré-Cœur_de_Montréal/Hôpital_du_Sacré-Cœur_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_du_Sacr%C3%A9-C%C5%93ur_de_Montr%C3%A9al</t>
+          <t>Hôpital_du_Sacré-Cœur_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital du Sacré-Cœur de Montréal (HSCM) est un établissement hospitalier francophone fondé à Montréal en 1898. Il est installé depuis 1926 sur le boulevard Gouin dans un édifice conçu par Dalbé Viau et Alphonse Venne[1].
-Son nom fait référence au Sacré-Cœur. Il s'appelait autrefois « hôpital des Incurables »[2].
+L'hôpital du Sacré-Cœur de Montréal (HSCM) est un établissement hospitalier francophone fondé à Montréal en 1898. Il est installé depuis 1926 sur le boulevard Gouin dans un édifice conçu par Dalbé Viau et Alphonse Venne.
+Son nom fait référence au Sacré-Cœur. Il s'appelait autrefois « hôpital des Incurables ».
 Le Sacré-Cœur est l'un des six centres hospitaliers universitaires affiliés à l'Université de Montréal et l'un des quatre principaux centres ambulatoires de Montréal.
 Son centre de recherches s'intéresse principalement aux domaines suivants : la génétique et épidémiologie des maladies rénales, les neurosciences-santé mentale, la santé cardiovasculaire, la santé respiratoire et la traumatologie-orthopédie.
 </t>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_du_Sacr%C3%A9-C%C5%93ur_de_Montr%C3%A9al</t>
+          <t>Hôpital_du_Sacré-Cœur_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Institut Albert-Prévost (1955), l'un des plus importants centres psychiatriques du Québec[3] existe toujours aujourd'hui comme département de psychiatrie de l'Hôpital du Sacré-Cœur de Montréal, sous le nom de Pavillon Albert-Prévost. </t>
+L'Institut Albert-Prévost (1955), l'un des plus importants centres psychiatriques du Québec existe toujours aujourd'hui comme département de psychiatrie de l'Hôpital du Sacré-Cœur de Montréal, sous le nom de Pavillon Albert-Prévost. </t>
         </is>
       </c>
     </row>
